--- a/data/ad_rcv.xlsx
+++ b/data/ad_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8849232696523647</v>
+        <v>0.89</v>
       </c>
       <c r="D2">
-        <v>0.8798207298207299</v>
+        <v>0.01477781239966604</v>
       </c>
       <c r="E2">
-        <v>0.8902125030887076</v>
+        <v>0.883443647729362</v>
       </c>
       <c r="F2">
-        <v>0.8736434108527131</v>
+        <v>0.02502545587699476</v>
       </c>
       <c r="G2">
-        <v>0.8724093729169871</v>
+        <v>0.8869343721905902</v>
+      </c>
+      <c r="H2">
+        <v>0.01938915620857944</v>
+      </c>
+      <c r="I2">
+        <v>0.8888323643410854</v>
+      </c>
+      <c r="J2">
+        <v>0.03435582521633514</v>
+      </c>
+      <c r="K2">
+        <v>0.8814883529169244</v>
+      </c>
+      <c r="L2">
+        <v>0.03804662737084022</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.9004426349305772</v>
+        <v>0.8912819438625889</v>
       </c>
       <c r="D3">
-        <v>0.8980548730548732</v>
+        <v>0.01809177933963549</v>
       </c>
       <c r="E3">
-        <v>0.8958388930071658</v>
+        <v>0.8997104247104246</v>
       </c>
       <c r="F3">
-        <v>0.8914728682170543</v>
+        <v>0.03043049442828249</v>
       </c>
       <c r="G3">
-        <v>0.89062708301287</v>
+        <v>0.9039356707621616</v>
+      </c>
+      <c r="H3">
+        <v>0.02495073666957983</v>
+      </c>
+      <c r="I3">
+        <v>0.9067163275193797</v>
+      </c>
+      <c r="J3">
+        <v>0.02881073334342392</v>
+      </c>
+      <c r="K3">
+        <v>0.8987012987012987</v>
+      </c>
+      <c r="L3">
+        <v>0.03197829110699051</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.9353544211295542</v>
+        <v>0.9359279430247172</v>
       </c>
       <c r="D4">
-        <v>0.9338361088361088</v>
+        <v>0.0139866028599795</v>
       </c>
       <c r="E4">
-        <v>0.9324363726216951</v>
+        <v>0.9301939694796838</v>
       </c>
       <c r="F4">
-        <v>0.9263565891472869</v>
+        <v>0.02231753667412423</v>
       </c>
       <c r="G4">
-        <v>0.9068451007537301</v>
+        <v>0.9462940765158325</v>
+      </c>
+      <c r="H4">
+        <v>0.01899027912102515</v>
+      </c>
+      <c r="I4">
+        <v>0.9393774224806201</v>
+      </c>
+      <c r="J4">
+        <v>0.02240470461579866</v>
+      </c>
+      <c r="K4">
+        <v>0.9128839414553701</v>
+      </c>
+      <c r="L4">
+        <v>0.03111694545629222</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7899217037269027</v>
+        <v>0.7780310012568077</v>
       </c>
       <c r="D5">
-        <v>0.7819023569023569</v>
+        <v>0.03982326421781769</v>
       </c>
       <c r="E5">
-        <v>0.7748010872251051</v>
+        <v>0.7675721640007354</v>
       </c>
       <c r="F5">
-        <v>0.7651162790697674</v>
+        <v>0.0386434415980681</v>
       </c>
       <c r="G5">
-        <v>0.755083833256422</v>
+        <v>0.7759964039556487</v>
+      </c>
+      <c r="H5">
+        <v>0.02825820723216634</v>
+      </c>
+      <c r="I5">
+        <v>0.7628149224806201</v>
+      </c>
+      <c r="J5">
+        <v>0.02943752808463825</v>
+      </c>
+      <c r="K5">
+        <v>0.7993918779633065</v>
+      </c>
+      <c r="L5">
+        <v>0.06635349511482706</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.9055976615513103</v>
+        <v>0.8906032677000418</v>
       </c>
       <c r="D6">
-        <v>0.8953430703430705</v>
+        <v>0.0210314840152061</v>
       </c>
       <c r="E6">
-        <v>0.8902001482579689</v>
+        <v>0.8861785254642397</v>
       </c>
       <c r="F6">
-        <v>0.8883720930232558</v>
+        <v>0.02848972246658482</v>
       </c>
       <c r="G6">
-        <v>0.8855663231297749</v>
+        <v>0.8940365597842372</v>
+      </c>
+      <c r="H6">
+        <v>0.02385513494008678</v>
+      </c>
+      <c r="I6">
+        <v>0.87249878875969</v>
+      </c>
+      <c r="J6">
+        <v>0.03844657863086696</v>
+      </c>
+      <c r="K6">
+        <v>0.8662646876932591</v>
+      </c>
+      <c r="L6">
+        <v>0.03158321801442242</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8325775133103663</v>
+        <v>0.8356304985337244</v>
       </c>
       <c r="D7">
-        <v>0.8136545636545638</v>
+        <v>0.02308175821251312</v>
       </c>
       <c r="E7">
-        <v>0.7966370150728934</v>
+        <v>0.8197922412208125</v>
       </c>
       <c r="F7">
-        <v>0.7868217054263567</v>
+        <v>0.03485579981977206</v>
       </c>
       <c r="G7">
-        <v>0.7884376762549351</v>
+        <v>0.8191189691339528</v>
+      </c>
+      <c r="H7">
+        <v>0.02894325689525946</v>
+      </c>
+      <c r="I7">
+        <v>0.8250847868217054</v>
+      </c>
+      <c r="J7">
+        <v>0.04977547658622897</v>
+      </c>
+      <c r="K7">
+        <v>0.838930117501546</v>
+      </c>
+      <c r="L7">
+        <v>0.04482187473002042</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.9721912516964192</v>
+        <v>0.8938542103058232</v>
       </c>
       <c r="D8">
-        <v>0.9797433797433797</v>
+        <v>0.01664546851980214</v>
       </c>
       <c r="E8">
-        <v>0.9746627131208303</v>
+        <v>0.8983544769259055</v>
       </c>
       <c r="F8">
-        <v>0.9767441860465116</v>
+        <v>0.03093653032532855</v>
       </c>
       <c r="G8">
-        <v>0.9756857919294468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8991397849462366</v>
-      </c>
-      <c r="D9">
-        <v>0.9000728000728</v>
-      </c>
-      <c r="E9">
-        <v>0.8937262169508278</v>
-      </c>
-      <c r="F9">
-        <v>0.8937984496124031</v>
-      </c>
-      <c r="G9">
-        <v>0.8733989642619084</v>
+        <v>0.9003895714713815</v>
+      </c>
+      <c r="H8">
+        <v>0.02441484165120646</v>
+      </c>
+      <c r="I8">
+        <v>0.9020409399224805</v>
+      </c>
+      <c r="J8">
+        <v>0.03051013422758855</v>
+      </c>
+      <c r="K8">
+        <v>0.8936507936507937</v>
+      </c>
+      <c r="L8">
+        <v>0.0397380203120664</v>
       </c>
     </row>
   </sheetData>
